--- a/medicine/Psychotrope/Kiseru/Kiseru.xlsx
+++ b/medicine/Psychotrope/Kiseru/Kiseru.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le kiseru (煙管?) est une pipe traditionnelle japonaise, longue et fine, de bambou ou métallique. Le kiseru permet de fumer un tabac à coupe très fine (« fin comme des cheveux ») : le kizami.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'origine du mot est incertaine. Kiseru viendrait du mot ksher (ou khsier) de la langue khmer du Cambodge, en relation avec les grandes cultures de chanvre du pays. D'autres sources donnent une origine portugaise au terme, les Portugais ayant apporté le tabac au Japon vers 1570.
 </t>
@@ -544,21 +558,92 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À la différence de la pipe occidentale, le kiseru a un petit embout et un très petit fourneau, le tuyau est plus long et majoritairement fabriqué en bambou. Le bol et le bec sont généralement en laiton ou en alliage. Certains kiseru sont entièrement métalliques voire en terre cuite.
 L’Américain Thomas Stevens fit le premier tour du monde à bicyclette entre 1884 et 1886 et il évoque les kiseru : « Tout le monde fume au Japon, aussi bien les femmes que les hommes. La pipe commune dans le pays est un petit tube en laiton d’une quinzaine de centimètres dont l’extrémité en coude est élargie pour former un bol. Ce bol ne peut contenir qu’une petite quantité de tabac. Quelques bouffées, un petit coup précis sur le bord du brasier pour faire tomber le résidu et la pipe est re-remplie, encore et encore, jusqu’à ce que le fumeur soit satisfait. Les filles qui attendent dans les yadoya et maisons de thé rangent leur tabac dans les grandes poches de leur manche, leur pipe parfois enfoncée dans leur écharpe ou dans leur ceinture, parfois enfoncée dans l’arrière de leur chevelure. » (Extrait de Around the World on a Bicycle de Thomas Stevens.)
-Parties
-Ces parties sont fabriquées en bambou (rau kiseru) ou en métal (nobe kiseru) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kiseru</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kiseru</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Parties</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ces parties sont fabriquées en bambou (rau kiseru) ou en métal (nobe kiseru) :
 rau (羅宇) ou rao : tuyau de la pipe,
 suikuchi (吸口) : bec du kiseru,
 koguchi (小口) : ouverture du bec (suikuchi) dans laquelle on insère le tuyau de la pipe,
 kuchimoto (口元) : extrémité du bec (suikuchi) portée à la bouche,
 gankubi (雁首, cou d’oie) : extrémité métallique qui s’emboîte sur le tuyau (rau) et  termine avec le bol (hizara),
 dô (胴, corps ou buste) : la partie antérieure du gankubi avant le bol (hizara),
-hizara (火皿, plat à feu) : le fourneau, petit bol à l’extrémité du kiseru dans lequel on place le tabac fin, kizami.
-Accessoires
-Kizami tabako (刻み煙草, tabac haché) : selon un processus traditionnel de préparation et hachage du tabac très fin, convenant bien aux petits bol des kiseru ; koiki 小粋 (Japon), kurofune (Belgique) et takarabune (Belgique) sont trois seules marques de tabac kizami.
+hizara (火皿, plat à feu) : le fourneau, petit bol à l’extrémité du kiseru dans lequel on place le tabac fin, kizami.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kiseru</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kiseru</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Accessoires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kizami tabako (刻み煙草, tabac haché) : selon un processus traditionnel de préparation et hachage du tabac très fin, convenant bien aux petits bol des kiseru ; koiki 小粋 (Japon), kurofune (Belgique) et takarabune (Belgique) sont trois seules marques de tabac kizami.
 Kiseru tsutsu (煙管筒) : tube à kiseru ou kiseru-ire.
 Kiseru-ire (煙管入れ, étui à kiseru) : existe en divers matériaux (cuir, tissu, bois, corne, ivoire, etc.).
 Tabako-ire (煙草入れ ou kamasu),  tabatière : ensemble avec le kiseru-ire (étui à kiseru).  Les tabako-ire se présentent comme :
@@ -572,8 +657,43 @@
 Netsuke (根付) : petits objets souvent sculptés permettant d’accrocher des objets à la ceinture de kimono (obi),
 Koshi-sashi (腰差し) : la tabatière pendante enfoncée dans l’étui du kiseru sous la ceinture du kimono.
 Le tabako-ire et le kiseru-ire sont indépendants et ne sont pas obligatoirement attachés l’un à l’autre et parfois, ils ne sont même pas assortis.
-Formes
-Rau kiseru (羅宇きせる ou rau giseru 羅宇ぎせる) : kiseru comportant trois parties (suikuchi, rau, gankubi), à la différence des nobe kiseru d’un seul tenant,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kiseru</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kiseru</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Formes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rau kiseru (羅宇きせる ou rau giseru 羅宇ぎせる) : kiseru comportant trois parties (suikuchi, rau, gankubi), à la différence des nobe kiseru d’un seul tenant,
 joshin (女信) : sorte de rau kiseru très répandu,
 sekishū (石州) : modèle le plus simple et le plus répandu des rau kiseru, du célèbre maître de thé japonais Sekishū qui affectionnait cette forme,
 kōdaiji (光大寺) : rau kiseru dont les embouts forment un renflement.
@@ -587,31 +707,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Kiseru</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Kiseru</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kiseru</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kiseru</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la seconde moitié du XVIe siècle, les Portugais introduisent le tabac au Japon. Les Japonais adoptent rapidement l'usage du tabac malgré la prohibition et la production et la consommation de tabac se développent. Dès la fin du XVIe siècle, le kiseru sert à le fumer.
 Pendant près de trois siècles, le kiseru est quasiment la seule façon de fumer le tabac au Japon.
@@ -625,31 +747,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Kiseru</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Kiseru</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kiseru</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kiseru</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Culture classique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>L'art de fumer (tabako-dō 煙草道) au Japon a permis le développement artistique des kiseru et des accessoires depuis l'époque d'Edo, comme les étuis à kiseru (kiseru-ire), les tabatières (tabako-ire), l'ensemble des nécessaires pour fumeurs (tabako-bon).
 Après la restauration Meiji et la fin des castes, des artisans qui travaillaient aux sabres de décoration développent des kiseru netsuke. Les kiseru artistement gravés ou décorés par des artisans qualifiés sont un symbole de statut social du propriétaire.
@@ -661,41 +785,116 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Kiseru</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Kiseru</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Kiseru</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kiseru</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Arme et kiseru-jutsu
-Les roturiers n'étant pas autorisés à porter des armes, un kiseru en bandoulière pouvait en faire office. 
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Arme et kiseru-jutsu</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les roturiers n'étant pas autorisés à porter des armes, un kiseru en bandoulière pouvait en faire office. 
 Avec des extrémités métalliques, le kiseru peut être utilisé comme arme. Les bandits samouraïs kabuki-mono de la période Edo s'en servaient ainsi.
-L'art de manier le kiseru comme une arme s'appelle le kiseru-jutsu[1]. Des kiseru spéciaux pour cet art de combat mesurent 1,20 mètre de long.
-Tenue du kiseru
-Les prises en main traditionnelles du kiseru sont attribuées dans le kabuki (歌舞伎, théâtre traditionnel) à différentes catégories comme les citadins (町人, chōnin), les tenanciers de tripots (博徒 bakuto), par les samouraïs (武士, bushi) ou les paysans (農民, nōmin). Le kiseru est tenu au niveau du bec (suikuchi) par le tenancier de tripot et au niveau du tuyau (rau) par un citadin.
+L'art de manier le kiseru comme une arme s'appelle le kiseru-jutsu. Des kiseru spéciaux pour cet art de combat mesurent 1,20 mètre de long.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Kiseru</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kiseru</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Culture populaire</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tenue du kiseru</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les prises en main traditionnelles du kiseru sont attribuées dans le kabuki (歌舞伎, théâtre traditionnel) à différentes catégories comme les citadins (町人, chōnin), les tenanciers de tripots (博徒 bakuto), par les samouraïs (武士, bushi) ou les paysans (農民, nōmin). Le kiseru est tenu au niveau du bec (suikuchi) par le tenancier de tripot et au niveau du tuyau (rau) par un citadin.
 Récemment, les jeunes Japonais utilisent les kiseru en enfonçant un bout de cigarette coupée dans le bol (hi-zara) ou en utilisant le bec (suikuchi) comme un fume-cigarette.
-Manga et anime
-Au début du XVIIe siècle, le kiseru était devenu assez populaire pour être mentionné, y compris dans certains manuels bouddhistes pour les enfants. À la période contemporaine, le kiseru fait partie des accessoires de la panoplie des héros et héroïnes des mangas et autres anime (dessins animés) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Kiseru</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kiseru</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Culture populaire</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Manga et anime</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Au début du XVIIe siècle, le kiseru était devenu assez populaire pour être mentionné, y compris dans certains manuels bouddhistes pour les enfants. À la période contemporaine, le kiseru fait partie des accessoires de la panoplie des héros et héroïnes des mangas et autres anime (dessins animés) :
 dans la série de jeux vidéo Ganbare Goemon, le héros éponyme possède comme arme de base un kiseru ;
 le manga et l'anime Naruto montre le héros invoquant Gamabunta, une grenouille rouge géante qui fume un kiseru ;
 Happosai dans Ranma 1/2 fume de temps à autre un kiseru ;
